--- a/Data/https_allgid.ru_переобход.xlsx
+++ b/Data/https_allgid.ru_переобход.xlsx
@@ -837,7 +837,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -851,6 +851,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -873,10 +882,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3196,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3406,706 +3416,953 @@
       <c r="A26" t="s">
         <v>53</v>
       </c>
+      <c r="B26" s="2">
+        <v>44384</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
+      <c r="B27" s="2">
+        <v>44384</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
+      <c r="B28" s="2">
+        <v>44384</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
+      <c r="B29" s="2">
+        <v>44384</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
+      <c r="B30" s="2">
+        <v>44384</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
+      <c r="B31" s="2">
+        <v>44384</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B53" s="2">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B54" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B56" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B57" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B58" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B59" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B60" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B61" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B63" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="B66" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B67" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="B68" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B69" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="B70" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="B71" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="B72" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="B73" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B74" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B75" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B76" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="B77" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2">
+        <v>44385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>270</v>
       </c>
+      <c r="B166" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B166"/>

--- a/Data/https_allgid.ru_переобход.xlsx
+++ b/Data/https_allgid.ru_переобход.xlsx
@@ -3206,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134:A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,334 +3837,444 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B79" s="2"/>
+      <c r="B79" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="2"/>
+      <c r="B80" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="2"/>
+      <c r="B81" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B82" s="2"/>
+      <c r="B82" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B83" s="2"/>
+      <c r="B83" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B84" s="2"/>
+      <c r="B84" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B85" s="2"/>
+      <c r="B85" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="2"/>
+      <c r="B87" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B88" s="2"/>
+      <c r="B88" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B89" s="2"/>
+      <c r="B89" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B90" s="2"/>
+      <c r="B90" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="2"/>
+      <c r="B91" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B92" s="2"/>
+      <c r="B92" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B93" s="2"/>
+      <c r="B93" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="2"/>
+      <c r="B94" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B95" s="2"/>
+      <c r="B95" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B96" s="2"/>
+      <c r="B96" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B97" s="2"/>
+      <c r="B97" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B98" s="2"/>
+      <c r="B98" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="2"/>
+      <c r="B99" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B100" s="2"/>
+      <c r="B100" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B103" s="2"/>
+      <c r="B103" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2">
+        <v>44386</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B105" s="2"/>
+      <c r="B105" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B106" s="2"/>
+      <c r="B106" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B107" s="2"/>
+      <c r="B107" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B108" s="2"/>
+      <c r="B108" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B110" s="2"/>
+      <c r="B110" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B111" s="2"/>
+      <c r="B111" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B112" s="2"/>
+      <c r="B112" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B115" s="2"/>
+      <c r="B115" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B116" s="2"/>
+      <c r="B116" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B117" s="2"/>
+      <c r="B117" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B121" s="2"/>
+      <c r="B121" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B123" s="2"/>
+      <c r="B123" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B124" s="2"/>
+      <c r="B124" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B126" s="2"/>
+      <c r="B126" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B127" s="2"/>
+      <c r="B127" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B130" s="2"/>
+      <c r="B130" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B131" s="2"/>
+      <c r="B131" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B132" s="2"/>
+      <c r="B132" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B133" s="2"/>
+      <c r="B133" s="2">
+        <v>44389</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
